--- a/sample_contacts.xlsx
+++ b/sample_contacts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Company</t>
   </si>
@@ -38,19 +38,166 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Corteva Crop Solution Hun. Kft.</t>
-  </si>
-  <si>
-    <t>Dimanoplulosz Dorina</t>
-  </si>
-  <si>
-    <t>ince.czechner@gmail.com</t>
-  </si>
-  <si>
-    <t>B&amp;B ENGINEERED SYSTEMS</t>
-  </si>
-  <si>
-    <t>Brad Burns</t>
+    <t>R-M SYSTEM KFT</t>
+  </si>
+  <si>
+    <t>Berdó József</t>
+  </si>
+  <si>
+    <t>rm-arnyekolastechnika@t-online.hu</t>
+  </si>
+  <si>
+    <t>ROTOVILL KFT</t>
+  </si>
+  <si>
+    <t>Gombkötő Béla</t>
+  </si>
+  <si>
+    <t>info@rotovill.hu</t>
+  </si>
+  <si>
+    <t>ROVITEX HOMEDECO KFT</t>
+  </si>
+  <si>
+    <t>Fazekas Dániel</t>
+  </si>
+  <si>
+    <t>daniel.fazekas@rovitex.com</t>
+  </si>
+  <si>
+    <t>RPP RUBBER PLASTICS PÉCS BT</t>
+  </si>
+  <si>
+    <t>Thomas Haas</t>
+  </si>
+  <si>
+    <t>info@rpp.hu</t>
+  </si>
+  <si>
+    <t>SAE SCHALTANLAGENBAU KFT</t>
+  </si>
+  <si>
+    <t>Balogh István</t>
+  </si>
+  <si>
+    <t>Istvan.Balogh@sae-erfurt.de</t>
+  </si>
+  <si>
+    <t>SCHNEIDER AUTÓHÁZ KFT</t>
+  </si>
+  <si>
+    <t>Schneider János</t>
+  </si>
+  <si>
+    <t>vevoszolgalat@schneiderautohaz.hu</t>
+  </si>
+  <si>
+    <t>SCHULLER EH-KLAR KFT</t>
+  </si>
+  <si>
+    <t>Lábady Zsolt István</t>
+  </si>
+  <si>
+    <t>hungary@schuller.eu</t>
+  </si>
+  <si>
+    <t>SHARAN KFT</t>
+  </si>
+  <si>
+    <t>Dobi Ferenc Imre</t>
+  </si>
+  <si>
+    <t>sharankft@webkioto.hu</t>
+  </si>
+  <si>
+    <t>SMHV ENERGETIKA KFT</t>
+  </si>
+  <si>
+    <t>Horváth Dezső</t>
+  </si>
+  <si>
+    <t>info@smhv.hu</t>
+  </si>
+  <si>
+    <t>SOLA-METAL KFT</t>
+  </si>
+  <si>
+    <t>Braun János</t>
+  </si>
+  <si>
+    <t>ertekesites@sola-metal.hu</t>
+  </si>
+  <si>
+    <t>SOMAPAK KFT</t>
+  </si>
+  <si>
+    <t>Bognár József</t>
+  </si>
+  <si>
+    <t>somapak@somapak.hu</t>
+  </si>
+  <si>
+    <t>SOPIA-NET KFT</t>
+  </si>
+  <si>
+    <t>Vukmann Attila</t>
+  </si>
+  <si>
+    <t>vukmann.attila@sopianet.hu</t>
+  </si>
+  <si>
+    <t>SPITZER SILÓ PÉCS KFT</t>
+  </si>
+  <si>
+    <t>Eirik Spitzer</t>
+  </si>
+  <si>
+    <t>pecs@spitzer-silo.hu</t>
+  </si>
+  <si>
+    <t>STEEL-METÁL KFT</t>
+  </si>
+  <si>
+    <t>Bartelmesz Olivér</t>
+  </si>
+  <si>
+    <t>oliver.bartelmesz@s-metal.hu</t>
+  </si>
+  <si>
+    <t>STRABAG ÉPÍTŐ KFT</t>
+  </si>
+  <si>
+    <t>Jámbor Irén</t>
+  </si>
+  <si>
+    <t>info.strepito@strabag.com</t>
+  </si>
+  <si>
+    <t>SZATMÁRI KFT</t>
+  </si>
+  <si>
+    <t>Szatmári Zoltán Károly</t>
+  </si>
+  <si>
+    <t>szatmari@szatmari.hu</t>
+  </si>
+  <si>
+    <t>SZERMANN KFT</t>
+  </si>
+  <si>
+    <t>Fülöp Balázs</t>
+  </si>
+  <si>
+    <t>hello@szermann.hu</t>
+  </si>
+  <si>
+    <t>SZINKRÓN KFT</t>
+  </si>
+  <si>
+    <t>Karfner Csaba</t>
+  </si>
+  <si>
+    <t>szinkron@szinkron.hu</t>
   </si>
 </sst>
 </file>
@@ -84,18 +231,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,28 +700,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,13 +845,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,17 +1197,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="19.5625" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1082,7 +1228,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1093,15 +1239,187 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="17.6" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="17.6" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="17.6" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="17.6" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="17.6" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="17.6" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="17.6" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="17.6" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="ince.czechner@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId1" display="ince.czechner@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
